--- a/Data/Processed/bad_images.xlsx
+++ b/Data/Processed/bad_images.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmm/Dropbox/House/EggImages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmm/Documents/GitHub/h2lifespan/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CB98D036-3BCD-F547-B299-CA0774ADBF51}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-18320" yWindow="460" windowWidth="17500" windowHeight="21040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -138,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,8 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,6 +177,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,11 +587,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -664,11 +675,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
